--- a/18 jan/DAY2JAN18.xlsx
+++ b/18 jan/DAY2JAN18.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sonuk\OneDrive\Desktop\ExcelInClass\18 jan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{37877FF6-7F6E-46CF-86A2-6F4CDE2D4212}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{117389AE-9FE2-4F6D-A25A-A52C2F2D8E43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{6303DB4E-EF56-4DAC-8076-9F05DDE1593A}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="1" xr2:uid="{6303DB4E-EF56-4DAC-8076-9F05DDE1593A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,8 +34,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
   <si>
     <t xml:space="preserve">S.NO </t>
   </si>
@@ -118,6 +141,9 @@
   </si>
   <si>
     <t>AGE</t>
+  </si>
+  <si>
+    <t>dayOndob</t>
   </si>
 </sst>
 </file>
@@ -470,19 +496,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01882698-01EF-455F-849E-0E475628196A}">
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="4" max="4" width="10.08984375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.08984375" customWidth="1"/>
+    <col min="10" max="10" width="10.36328125" customWidth="1"/>
+    <col min="11" max="11" width="23.36328125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -510,8 +539,14 @@
       <c r="I1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -522,15 +557,15 @@
         <v>17</v>
       </c>
       <c r="D2" s="1">
-        <v>38083</v>
+        <v>38089</v>
       </c>
       <c r="E2" s="1">
         <f ca="1">TODAY()</f>
-        <v>45309</v>
+        <v>45329</v>
       </c>
       <c r="F2">
         <f>DAY(D2)</f>
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="G2">
         <f>MONTH(D2)</f>
@@ -540,16 +575,24 @@
         <f>YEAR(D2)</f>
         <v>2004</v>
       </c>
-      <c r="I2">
-        <f ca="1">YEAR(E2)-YEAR(D2)</f>
-        <v>20</v>
+      <c r="I2" t="e" cm="1">
+        <f t="array" ref="I2">YEAR(E)</f>
+        <v>#NAME?</v>
       </c>
       <c r="J2" s="1">
         <f>-D2</f>
-        <v>-38083</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+        <v>-38089</v>
+      </c>
+      <c r="K2" t="str">
+        <f ca="1">DATEDIF(D2,TODAY(),"Y") &amp; " Years " &amp; DATEDIF(D2,TODAY(),"YM") &amp; " Months " &amp; DATEDIF(D2,TODAY(),"MD") &amp; " Days"</f>
+        <v>19 Years 9 Months 26 Days</v>
+      </c>
+      <c r="L2" t="str">
+        <f>TEXT(D2,"dddd")</f>
+        <v>Monday</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -564,7 +607,7 @@
       </c>
       <c r="E3" s="1">
         <f t="shared" ref="E3:E11" ca="1" si="0">TODAY()</f>
-        <v>45309</v>
+        <v>45329</v>
       </c>
       <c r="F3">
         <f t="shared" ref="F3:F11" si="1">DAY(D3)</f>
@@ -582,8 +625,12 @@
         <f t="shared" ref="I3:I11" ca="1" si="4">YEAR(E3)-YEAR(D3)</f>
         <v>19</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K3" t="str">
+        <f t="shared" ref="K3:K11" ca="1" si="5">DATEDIF(D3,TODAY(),"Y") &amp; " Years " &amp; DATEDIF(D3,TODAY(),"YM") &amp; " Months " &amp; DATEDIF(D3,TODAY(),"MD") &amp; " Days"</f>
+        <v>18 Years 7 Months 27 Days</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -598,7 +645,7 @@
       </c>
       <c r="E4" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45309</v>
+        <v>45329</v>
       </c>
       <c r="F4">
         <f t="shared" si="1"/>
@@ -616,8 +663,12 @@
         <f t="shared" ca="1" si="4"/>
         <v>20</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K4" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>19 Years 7 Months 1 Days</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -632,7 +683,7 @@
       </c>
       <c r="E5" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45309</v>
+        <v>45329</v>
       </c>
       <c r="F5">
         <f t="shared" si="1"/>
@@ -650,8 +701,12 @@
         <f t="shared" ca="1" si="4"/>
         <v>22</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K5" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>21 Years 8 Months 15 Days</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
@@ -666,7 +721,7 @@
       </c>
       <c r="E6" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45309</v>
+        <v>45329</v>
       </c>
       <c r="F6">
         <f t="shared" si="1"/>
@@ -684,8 +739,12 @@
         <f t="shared" ca="1" si="4"/>
         <v>20</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K6" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>19 Years 7 Months 17 Days</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
@@ -700,7 +759,7 @@
       </c>
       <c r="E7" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45309</v>
+        <v>45329</v>
       </c>
       <c r="F7">
         <f t="shared" si="1"/>
@@ -718,8 +777,12 @@
         <f t="shared" ca="1" si="4"/>
         <v>20</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K7" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>19 Years 10 Months 27 Days</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
@@ -734,7 +797,7 @@
       </c>
       <c r="E8" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45309</v>
+        <v>45329</v>
       </c>
       <c r="F8">
         <f t="shared" si="1"/>
@@ -752,8 +815,12 @@
         <f t="shared" ca="1" si="4"/>
         <v>23</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K8" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>22 Years 10 Months 24 Days</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
@@ -768,7 +835,7 @@
       </c>
       <c r="E9" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45309</v>
+        <v>45329</v>
       </c>
       <c r="F9">
         <f t="shared" si="1"/>
@@ -786,8 +853,12 @@
         <f t="shared" ca="1" si="4"/>
         <v>24</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K9" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>24 Years 0 Months 20 Days</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
@@ -802,7 +873,7 @@
       </c>
       <c r="E10" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45309</v>
+        <v>45329</v>
       </c>
       <c r="F10">
         <f t="shared" si="1"/>
@@ -820,8 +891,12 @@
         <f t="shared" ca="1" si="4"/>
         <v>24</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K10" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>24 Years 0 Months 21 Days</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10</v>
       </c>
@@ -836,7 +911,7 @@
       </c>
       <c r="E11" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45309</v>
+        <v>45329</v>
       </c>
       <c r="F11">
         <f t="shared" si="1"/>
@@ -854,8 +929,24 @@
         <f t="shared" ca="1" si="4"/>
         <v>18</v>
       </c>
+      <c r="K11" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>17 Years 9 Months 18 Days</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7D0C097-94FC-4352-B7DB-FD331E258059}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>